--- a/B01/d01.xlsx
+++ b/B01/d01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="84">
   <si>
     <t>父功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +332,26 @@
   <si>
     <t>acct_id
 [Job_Id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雅彬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,6 +505,254 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="0"/>
+          <a:ext cx="4429125" cy="3333750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="209550"/>
+          <a:ext cx="2771775" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="200025"/>
+          <a:ext cx="628650" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>搜索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="762000"/>
+          <a:ext cx="1028700" cy="2362200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>简历管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>职位管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>佣金管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -772,23 +1040,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -799,19 +1068,22 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="40.5">
+    <row r="2" spans="1:8" ht="40.5">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -822,17 +1094,20 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="27">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="40.5">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -842,18 +1117,21 @@
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="27">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="27">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -863,18 +1141,21 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -885,17 +1166,20 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -906,17 +1190,20 @@
         <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="27">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="27">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -926,18 +1213,21 @@
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="27">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -947,18 +1237,21 @@
       <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="40.5">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="40.5">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -968,20 +1261,23 @@
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -991,20 +1287,23 @@
       <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="27">
+    <row r="11" spans="1:8" ht="27">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1015,19 +1314,22 @@
         <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27">
+    <row r="12" spans="1:8" ht="27">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1037,20 +1339,23 @@
       <c r="C12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="67.5">
+    <row r="13" spans="1:8" ht="67.5">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1060,18 +1365,21 @@
       <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1082,19 +1390,22 @@
         <v>56</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27">
+    <row r="15" spans="1:8" ht="27">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1104,18 +1415,21 @@
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="27">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="27">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
@@ -1125,18 +1439,21 @@
       <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="27">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="27">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1146,18 +1463,21 @@
       <c r="C17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -1167,8 +1487,8 @@
       <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>57</v>
+      <c r="D18" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>57</v>
@@ -1176,30 +1496,36 @@
       <c r="F18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="27">
+      <c r="G18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="27">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="40.5">
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="40.5">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1209,16 +1535,19 @@
       <c r="C20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1240,6 +1569,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
